--- a/mySystem/mySystem/xls/LDPEBag/SOP-MFG-102-R01A 生产领料记录.xlsx
+++ b/mySystem/mySystem/xls/LDPEBag/SOP-MFG-102-R01A 生产领料记录.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCXFD\mySystem\mySystem\xls\LDPEBag\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mitcpro\mySystem\mySystem\xls\LDPEBag\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <r>
       <rPr>
@@ -114,10 +114,6 @@
   </si>
   <si>
     <t>班次</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每批一行或多行记录，多班多天生产时，可连续填写</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -676,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.2" customHeight="1"/>
@@ -713,7 +709,7 @@
     </row>
     <row r="2" spans="1:13" ht="35.450000000000003" customHeight="1">
       <c r="A2" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -755,7 +751,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>11</v>
@@ -770,13 +766,13 @@
         <v>7</v>
       </c>
       <c r="H4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="J4" s="12" t="s">
         <v>17</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>18</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>8</v>
@@ -915,7 +911,7 @@
     </row>
     <row r="15" spans="1:13" s="3" customFormat="1" ht="42" customHeight="1">
       <c r="A15" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
@@ -942,9 +938,7 @@
       <c r="K16" s="21"/>
     </row>
     <row r="17" spans="2:3" ht="24.2" customHeight="1">
-      <c r="B17" s="10" t="s">
-        <v>12</v>
-      </c>
+      <c r="B17" s="10"/>
       <c r="C17" s="10"/>
     </row>
   </sheetData>
